--- a/src/analysis_examples/circadb/results_lomb/cosinor_10375402_adam19_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10375402_adam19_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3806515807278341, 0.45942586498653837]</t>
+          <t>[0.3815097958308361, 0.4585676498835364]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="N2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O2" t="n">
         <v>-1.207579158136618</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.39561854210720315, 0.43931057749510183]</t>
+          <t>[0.3956408474011884, 0.4392882722011166]</t>
         </is>
       </c>
       <c r="U2" t="n">
